--- a/data/trans_orig/P42-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>203329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182643</v>
+        <v>181559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222401</v>
+        <v>223711</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4357360695301951</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3914059804383551</v>
+        <v>0.389083797868972</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4766081070410888</v>
+        <v>0.4794146856718205</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>263304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244232</v>
+        <v>242922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283990</v>
+        <v>285074</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5642639304698049</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5233918929589113</v>
+        <v>0.5205853143281796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6085940195616453</v>
+        <v>0.610916202131028</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>549155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>529134</v>
+        <v>530909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>563148</v>
+        <v>564497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8808122524263918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.848700034233948</v>
+        <v>0.8515468994067719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9032561793179725</v>
+        <v>0.9054210137596702</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>74309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60316</v>
+        <v>58967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94330</v>
+        <v>92555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1191877475736082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09674382068202746</v>
+        <v>0.09457898624032983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.151299965766052</v>
+        <v>0.1484531005932281</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>641702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>625802</v>
+        <v>626064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>653397</v>
+        <v>653770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9317259561933384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9086394744590912</v>
+        <v>0.9090196394961373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9487064469934777</v>
+        <v>0.9492486358425063</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>47022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35327</v>
+        <v>34954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62922</v>
+        <v>62660</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06827404380666162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05129355300652227</v>
+        <v>0.05075136415749367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09136052554090862</v>
+        <v>0.09098036050386235</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>477701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>463930</v>
+        <v>464090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>487824</v>
+        <v>488198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.926419612084786</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8997141894488163</v>
+        <v>0.9000230975295991</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9460513809376608</v>
+        <v>0.9467779931248513</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>37941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27818</v>
+        <v>27444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51712</v>
+        <v>51552</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07358038791521407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05394861906233923</v>
+        <v>0.05322200687514871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1002858105511837</v>
+        <v>0.09997690247040088</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>347172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>331621</v>
+        <v>332680</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>358800</v>
+        <v>359200</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8615274904995589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8229365661180044</v>
+        <v>0.8255641898686197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8903827855305064</v>
+        <v>0.8913739199758094</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>55801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44173</v>
+        <v>43773</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71352</v>
+        <v>70293</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1384725095004411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1096172144694936</v>
+        <v>0.1086260800241906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1770634338819956</v>
+        <v>0.1744358101313803</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>257031</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>240642</v>
+        <v>242595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270513</v>
+        <v>270577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7514767955735762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7035587573486209</v>
+        <v>0.7092689202872737</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7908914267794753</v>
+        <v>0.7910791118777728</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>85004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71522</v>
+        <v>71458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101393</v>
+        <v>99440</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2485232044264238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2091085732205244</v>
+        <v>0.2089208881222272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.296441242651379</v>
+        <v>0.2907310797127255</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>185265</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>165858</v>
+        <v>167147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>203610</v>
+        <v>204107</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5707024992312142</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5109180424031782</v>
+        <v>0.5148905787869306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6272135543917354</v>
+        <v>0.6287438424884211</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>139362</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>121017</v>
+        <v>120520</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158769</v>
+        <v>157480</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4292975007687858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3727864456082647</v>
+        <v>0.3712561575115789</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4890819575968219</v>
+        <v>0.4851094212130696</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>2661356</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7911051909492635</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>702743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>658403</v>
+        <v>657501</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>751358</v>
+        <v>752558</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2088948090507366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1957144072591661</v>
+        <v>0.1954463344490666</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2233459308343023</v>
+        <v>0.223702655441903</v>
       </c>
     </row>
     <row r="27">
@@ -1473,19 +1473,19 @@
         <v>250354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229662</v>
+        <v>229827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>269723</v>
+        <v>269406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5846927122157144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5363684907651978</v>
+        <v>0.5367541327854186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6299284809531248</v>
+        <v>0.6291879881277707</v>
       </c>
     </row>
     <row r="5">
@@ -1502,19 +1502,19 @@
         <v>177826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158457</v>
+        <v>158774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198518</v>
+        <v>198353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4153072877842856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3700715190468751</v>
+        <v>0.3708120118722293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4636315092348021</v>
+        <v>0.4632458672145811</v>
       </c>
     </row>
     <row r="6">
@@ -1564,19 +1564,19 @@
         <v>557326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>541011</v>
+        <v>541850</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>570145</v>
+        <v>569641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9234186977283348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8963868937372739</v>
+        <v>0.8977776134407435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.944658847458033</v>
+        <v>0.9438233103801789</v>
       </c>
     </row>
     <row r="8">
@@ -1593,19 +1593,19 @@
         <v>46220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33401</v>
+        <v>33905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62535</v>
+        <v>61696</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07658130227166511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05534115254196682</v>
+        <v>0.05617668961982115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1036131062627261</v>
+        <v>0.1022223865592564</v>
       </c>
     </row>
     <row r="9">
@@ -1655,19 +1655,19 @@
         <v>696007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>687052</v>
+        <v>686356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>702099</v>
+        <v>702016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.981857840419421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9692262428961975</v>
+        <v>0.9682431836690681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.990452713874465</v>
+        <v>0.9903359826113288</v>
       </c>
     </row>
     <row r="11">
@@ -1684,19 +1684,19 @@
         <v>12860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6768</v>
+        <v>6851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21815</v>
+        <v>22511</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01814215958057901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009547286125534954</v>
+        <v>0.009664017388671182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03077375710380239</v>
+        <v>0.03175681633093179</v>
       </c>
     </row>
     <row r="12">
@@ -1746,19 +1746,19 @@
         <v>583993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>572669</v>
+        <v>570500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>593834</v>
+        <v>593990</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9526956883342683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9342220511780148</v>
+        <v>0.9306848300008871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9687506008121131</v>
+        <v>0.9690049889373457</v>
       </c>
     </row>
     <row r="14">
@@ -1775,19 +1775,19 @@
         <v>28997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19156</v>
+        <v>19000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40321</v>
+        <v>42490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0473043116657317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03124939918788688</v>
+        <v>0.03099501106265442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.065777948821985</v>
+        <v>0.06931516999911314</v>
       </c>
     </row>
     <row r="15">
@@ -1837,19 +1837,19 @@
         <v>420342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>409183</v>
+        <v>409718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>429426</v>
+        <v>429397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9408717333592767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9158950262690984</v>
+        <v>0.9170912204043661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9612043727990908</v>
+        <v>0.9611402770322388</v>
       </c>
     </row>
     <row r="17">
@@ -1866,19 +1866,19 @@
         <v>26416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17332</v>
+        <v>17361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37575</v>
+        <v>37040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0591282666407234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03879562720090925</v>
+        <v>0.03885972296776118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08410497373090131</v>
+        <v>0.08290877959563379</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>295821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>282299</v>
+        <v>281502</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>307994</v>
+        <v>309122</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.842546096937059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8040321581621518</v>
+        <v>0.8017632019012469</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8772151668168275</v>
+        <v>0.8804276922038262</v>
       </c>
     </row>
     <row r="20">
@@ -1957,19 +1957,19 @@
         <v>55283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43110</v>
+        <v>41982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68805</v>
+        <v>69602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.157453903062941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1227848331831726</v>
+        <v>0.1195723077961738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1959678418378482</v>
+        <v>0.1982367980987531</v>
       </c>
     </row>
     <row r="21">
@@ -2019,19 +2019,19 @@
         <v>279359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>261331</v>
+        <v>260212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>298960</v>
+        <v>296699</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7241976660707274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6774648152585063</v>
+        <v>0.6745621278613291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7750126848995489</v>
+        <v>0.7691513936612402</v>
       </c>
     </row>
     <row r="23">
@@ -2048,19 +2048,19 @@
         <v>106390</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86789</v>
+        <v>89050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124418</v>
+        <v>125537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2758023339292726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2249873151004511</v>
+        <v>0.2308486063387596</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3225351847414935</v>
+        <v>0.3254378721386709</v>
       </c>
     </row>
     <row r="24">
@@ -2110,19 +2110,19 @@
         <v>3083200</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8716515876878613</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
     </row>
     <row r="26">
@@ -2139,19 +2139,19 @@
         <v>453993</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>417399</v>
+        <v>409888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>496427</v>
+        <v>493331</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1283484123121387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.11800299816704</v>
+        <v>0.1158793826168747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.140344938342908</v>
+        <v>0.1394696761541836</v>
       </c>
     </row>
     <row r="27">
@@ -2322,19 +2322,19 @@
         <v>235063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>216077</v>
+        <v>215454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252610</v>
+        <v>253464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6020717836855595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.553441532672009</v>
+        <v>0.5518462632894537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6470145645338808</v>
+        <v>0.64920294885509</v>
       </c>
     </row>
     <row r="5">
@@ -2351,19 +2351,19 @@
         <v>155361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137814</v>
+        <v>136960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174347</v>
+        <v>174970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3979282163144405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3529854354661195</v>
+        <v>0.3507970511449099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4465584673279913</v>
+        <v>0.4481537367105463</v>
       </c>
     </row>
     <row r="6">
@@ -2413,19 +2413,19 @@
         <v>499170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>482486</v>
+        <v>484270</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>511212</v>
+        <v>512614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.891336486394998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8615451564742702</v>
+        <v>0.8647308512577073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9128389578770255</v>
+        <v>0.915343783042418</v>
       </c>
     </row>
     <row r="8">
@@ -2442,19 +2442,19 @@
         <v>60854</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48812</v>
+        <v>47410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77538</v>
+        <v>75754</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.108663513605002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08716104212297486</v>
+        <v>0.08465621695758194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1384548435257298</v>
+        <v>0.1352691487422926</v>
       </c>
     </row>
     <row r="9">
@@ -2504,19 +2504,19 @@
         <v>621719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>609889</v>
+        <v>609054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>632761</v>
+        <v>631505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9462554659030601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9282493286775511</v>
+        <v>0.9269790298271982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9630617180999307</v>
+        <v>0.9611498249462648</v>
       </c>
     </row>
     <row r="11">
@@ -2533,19 +2533,19 @@
         <v>35312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24270</v>
+        <v>25526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47142</v>
+        <v>47977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05374453409693992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03693828190006924</v>
+        <v>0.03885017505373516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07175067132244874</v>
+        <v>0.07302097017280172</v>
       </c>
     </row>
     <row r="12">
@@ -2595,19 +2595,19 @@
         <v>613499</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>601772</v>
+        <v>600016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>623279</v>
+        <v>623640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.952815000439404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9346034599745827</v>
+        <v>0.9318748707748384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.96800558663286</v>
+        <v>0.9685652473214919</v>
       </c>
     </row>
     <row r="14">
@@ -2624,19 +2624,19 @@
         <v>30381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20601</v>
+        <v>20240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42108</v>
+        <v>43864</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04718499956059593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03199441336713994</v>
+        <v>0.03143475267850884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06539654002541662</v>
+        <v>0.06812512922516221</v>
       </c>
     </row>
     <row r="15">
@@ -2686,19 +2686,19 @@
         <v>461391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>448095</v>
+        <v>448081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>471272</v>
+        <v>471739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9348280722631001</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9078888742246173</v>
+        <v>0.9078606504265215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9548473971899932</v>
+        <v>0.9557942108966172</v>
       </c>
     </row>
     <row r="17">
@@ -2715,19 +2715,19 @@
         <v>32166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22285</v>
+        <v>21818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45462</v>
+        <v>45476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06517192773689992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04515260281000668</v>
+        <v>0.04420578910338253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09211112577538266</v>
+        <v>0.09213934957347848</v>
       </c>
     </row>
     <row r="18">
@@ -2777,19 +2777,19 @@
         <v>328777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315514</v>
+        <v>313926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>342338</v>
+        <v>340254</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8754010539452862</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8400869495874954</v>
+        <v>0.835858372648757</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9115093104880289</v>
+        <v>0.905959427376915</v>
       </c>
     </row>
     <row r="20">
@@ -2806,19 +2806,19 @@
         <v>46796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33235</v>
+        <v>35319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60059</v>
+        <v>61647</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1245989460547138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08849068951197139</v>
+        <v>0.09404057262308498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1599130504125048</v>
+        <v>0.1641416273512434</v>
       </c>
     </row>
     <row r="21">
@@ -2868,19 +2868,19 @@
         <v>306934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>287432</v>
+        <v>285462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>325041</v>
+        <v>325275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7739046969598955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.724732995108911</v>
+        <v>0.7197662816967012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8195596433823281</v>
+        <v>0.82015025829732</v>
       </c>
     </row>
     <row r="23">
@@ -2897,19 +2897,19 @@
         <v>89670</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71563</v>
+        <v>71329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109172</v>
+        <v>111142</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2260953030401045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.180440356617672</v>
+        <v>0.17984974170268</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.275267004891089</v>
+        <v>0.2802337183032987</v>
       </c>
     </row>
     <row r="24">
@@ -2959,19 +2959,19 @@
         <v>3066554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8718996815257611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
     </row>
     <row r="26">
@@ -2988,19 +2988,19 @@
         <v>450541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>409066</v>
+        <v>412662</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>491514</v>
+        <v>490344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1281003184742389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1163078171874047</v>
+        <v>0.1173302873233651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1397499726553872</v>
+        <v>0.1394172152304642</v>
       </c>
     </row>
     <row r="27">
@@ -3171,19 +3171,19 @@
         <v>115572</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93065</v>
+        <v>93185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>137070</v>
+        <v>141111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3871357260294033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3117412854540502</v>
+        <v>0.3121442270478855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4591460390215516</v>
+        <v>0.4726823082163835</v>
       </c>
     </row>
     <row r="5">
@@ -3200,19 +3200,19 @@
         <v>182960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161462</v>
+        <v>157421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>205467</v>
+        <v>205347</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6128642739705965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.540853960978448</v>
+        <v>0.5273176917836162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6882587145459501</v>
+        <v>0.6878557729521146</v>
       </c>
     </row>
     <row r="6">
@@ -3262,19 +3262,19 @@
         <v>287860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270725</v>
+        <v>270345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303786</v>
+        <v>303154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7836304384340557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.736985895023025</v>
+        <v>0.7359501208747729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8269858099286038</v>
+        <v>0.8252665257837344</v>
       </c>
     </row>
     <row r="8">
@@ -3291,19 +3291,19 @@
         <v>79481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63555</v>
+        <v>64187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96616</v>
+        <v>96996</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2163695615659444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1730141900713964</v>
+        <v>0.1747334742162653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2630141049769751</v>
+        <v>0.2640498791252269</v>
       </c>
     </row>
     <row r="9">
@@ -3353,19 +3353,19 @@
         <v>382537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>371777</v>
+        <v>371529</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>393339</v>
+        <v>392597</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9001122895977467</v>
+        <v>0.9001122895977468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8747949732023217</v>
+        <v>0.8742098363360028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9255304906114232</v>
+        <v>0.9237838517663339</v>
       </c>
     </row>
     <row r="11">
@@ -3382,19 +3382,19 @@
         <v>42451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31649</v>
+        <v>32391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53211</v>
+        <v>53459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09988771040225325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07446950938857685</v>
+        <v>0.07621614823366595</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1252050267976785</v>
+        <v>0.1257901636639971</v>
       </c>
     </row>
     <row r="12">
@@ -3444,19 +3444,19 @@
         <v>486462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475756</v>
+        <v>478914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>493246</v>
+        <v>493889</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9493050178065658</v>
+        <v>0.9493050178065657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9284137499625963</v>
+        <v>0.9345759466521958</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9625432839764801</v>
+        <v>0.9637993869402709</v>
       </c>
     </row>
     <row r="14">
@@ -3473,19 +3473,19 @@
         <v>25978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19194</v>
+        <v>18551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36684</v>
+        <v>33526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0506949821934343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03745671602351974</v>
+        <v>0.03620061305972888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07158625003740321</v>
+        <v>0.06542405334780416</v>
       </c>
     </row>
     <row r="15">
@@ -3535,19 +3535,19 @@
         <v>416517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>407188</v>
+        <v>407030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>424270</v>
+        <v>423635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9309198355771513</v>
+        <v>0.9309198355771515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9100701368544121</v>
+        <v>0.9097168531076161</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9482482639441784</v>
+        <v>0.9468285556038356</v>
       </c>
     </row>
     <row r="17">
@@ -3564,19 +3564,19 @@
         <v>30908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23155</v>
+        <v>23790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40237</v>
+        <v>40395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06908016442284852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05175173605582155</v>
+        <v>0.0531714443961645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0899298631455879</v>
+        <v>0.0902831468923839</v>
       </c>
     </row>
     <row r="18">
@@ -3626,19 +3626,19 @@
         <v>323253</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315703</v>
+        <v>314939</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>329626</v>
+        <v>329611</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9245824280161494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9029869160269063</v>
+        <v>0.9008015687271638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9428107908515508</v>
+        <v>0.9427667061239035</v>
       </c>
     </row>
     <row r="20">
@@ -3655,19 +3655,19 @@
         <v>26368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19995</v>
+        <v>20010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33918</v>
+        <v>34682</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07541757198385057</v>
+        <v>0.07541757198385059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05718920914844895</v>
+        <v>0.05723329387609645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09701308397309377</v>
+        <v>0.09919843127283606</v>
       </c>
     </row>
     <row r="21">
@@ -3717,19 +3717,19 @@
         <v>331574</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>320217</v>
+        <v>318830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>342319</v>
+        <v>341766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8301225289528291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8016890289525452</v>
+        <v>0.7982158704218547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8570223542686252</v>
+        <v>0.8556385697481814</v>
       </c>
     </row>
     <row r="23">
@@ -3746,19 +3746,19 @@
         <v>67854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57109</v>
+        <v>57662</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79211</v>
+        <v>80598</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1698774710471709</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1429776457313749</v>
+        <v>0.1443614302518185</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1983109710474546</v>
+        <v>0.2017841295781452</v>
       </c>
     </row>
     <row r="24">
@@ -3808,19 +3808,19 @@
         <v>2343774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8371297599678441</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="26">
@@ -3837,19 +3837,19 @@
         <v>456000</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>413792</v>
+        <v>415549</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>498530</v>
+        <v>495016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1628702400321558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1477946862459167</v>
+        <v>0.1484225090773863</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1780606379389628</v>
+        <v>0.1768056394890542</v>
       </c>
     </row>
     <row r="27">
